--- a/test_excel.xlsx
+++ b/test_excel.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matiastolppanen/healthcare/snomed_ct/thl/en_row_update/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FD6A2EA-24B9-F44F-8BAB-3D2BABAB52C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19CE819-22DC-494B-8FBB-583408FE9348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56520" yWindow="4480" windowWidth="27760" windowHeight="16940" xr2:uid="{A4537EF8-BA56-F043-952B-429B0A7F57D4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A4537EF8-BA56-F043-952B-429B0A7F57D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>3212</t>
   </si>
   <si>
-    <t>inactivated concept</t>
-  </si>
-  <si>
     <t>MU</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>new concept</t>
-  </si>
-  <si>
     <t>M99203-</t>
   </si>
   <si>
@@ -225,6 +219,9 @@
   </si>
   <si>
     <t>verenkierto_yleiset</t>
+  </si>
+  <si>
+    <t>edit</t>
   </si>
 </sst>
 </file>
@@ -641,192 +638,190 @@
   <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AO1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="W2" s="1"/>
       <c r="X2" s="1">
@@ -839,7 +834,7 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
@@ -857,23 +852,23 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K3" s="2">
         <v>5134345010</v>
@@ -882,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>

--- a/test_excel.xlsx
+++ b/test_excel.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matiastolppanen/healthcare/snomed_ct/thl/en_row_update/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19CE819-22DC-494B-8FBB-583408FE9348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137FB131-612B-C34C-A9D6-2759C63E98E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A4537EF8-BA56-F043-952B-429B0A7F57D4}"/>
+    <workbookView xWindow="0" yWindow="7240" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{A4537EF8-BA56-F043-952B-429B0A7F57D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="73">
   <si>
     <t>3212</t>
   </si>
@@ -98,45 +99,15 @@
     <t>Myeloid neoplasm post cytotoxic therapy</t>
   </si>
   <si>
-    <t>lineid</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
-    <t>tmdc</t>
-  </si>
-  <si>
-    <t>lang</t>
-  </si>
-  <si>
-    <t>in_use</t>
-  </si>
-  <si>
-    <t>legacy_conceptid</t>
-  </si>
-  <si>
     <t>legacy_termid</t>
   </si>
   <si>
     <t>tays_snomed_ii</t>
   </si>
   <si>
-    <t>sct_conceptid</t>
-  </si>
-  <si>
-    <t>sct_concept_fsn</t>
-  </si>
-  <si>
-    <t>sct_termid</t>
-  </si>
-  <si>
-    <t>sct_termid_en</t>
-  </si>
-  <si>
-    <t>sct_term</t>
-  </si>
-  <si>
     <t>parent_conceptid</t>
   </si>
   <si>
@@ -149,27 +120,12 @@
     <t>av_notes</t>
   </si>
   <si>
-    <t>icdo_code_ssr</t>
-  </si>
-  <si>
     <t>icdo_term</t>
   </si>
   <si>
     <t>icdo_synonyms</t>
   </si>
   <si>
-    <t>effectivetime</t>
-  </si>
-  <si>
-    <t>supersededtime</t>
-  </si>
-  <si>
-    <t>superseded_by</t>
-  </si>
-  <si>
-    <t>inaktivoinnin_selite</t>
-  </si>
-  <si>
     <t>sn2_code</t>
   </si>
   <si>
@@ -222,6 +178,84 @@
   </si>
   <si>
     <t>edit</t>
+  </si>
+  <si>
+    <t>CodeId</t>
+  </si>
+  <si>
+    <t>A:Active</t>
+  </si>
+  <si>
+    <t>A:SCT_TermID</t>
+  </si>
+  <si>
+    <t>A:Lang</t>
+  </si>
+  <si>
+    <t>LongName</t>
+  </si>
+  <si>
+    <t>A:SNOMEDCT</t>
+  </si>
+  <si>
+    <t>A:ICD-O-3_Morfologia</t>
+  </si>
+  <si>
+    <t>A:Legacy_ConceptID</t>
+  </si>
+  <si>
+    <t>A:SCT_Concept_FSN</t>
+  </si>
+  <si>
+    <t>A:GUI_Category</t>
+  </si>
+  <si>
+    <t>ParentId</t>
+  </si>
+  <si>
+    <t>BeginningDate</t>
+  </si>
+  <si>
+    <t>ExpiringDate</t>
+  </si>
+  <si>
+    <t>A:InaktivoinninSelite</t>
+  </si>
+  <si>
+    <t>A:KorvaavaKoodi</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>D35600-78745000</t>
+  </si>
+  <si>
+    <t>D35600-130662013</t>
+  </si>
+  <si>
+    <t>D3560010000</t>
+  </si>
+  <si>
+    <t>78745000</t>
+  </si>
+  <si>
+    <t>Urticaria pigmentosa (disorder)</t>
+  </si>
+  <si>
+    <t>130662013</t>
+  </si>
+  <si>
+    <t>Urticaria pigmentosa</t>
+  </si>
+  <si>
+    <t>D35600</t>
+  </si>
+  <si>
+    <t>inactivate</t>
   </si>
 </sst>
 </file>
@@ -291,14 +325,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -635,137 +666,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69F05AF-9F95-DC4F-9C54-E2EDA650603E}">
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="R1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="U1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.3">
@@ -852,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -908,7 +939,455 @@
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
     </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECA1C13-F7FD-E240-856E-629111FF8D1A}">
+  <dimension ref="A1:AO4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2">
+        <v>5134345010</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>